--- a/templates/alpha.xlsx
+++ b/templates/alpha.xlsx
@@ -1762,7 +1762,7 @@
     <row r="10" s="102">
       <c r="B10" s="125" t="inlineStr">
         <is>
-          <t>Счет на оплату № 1.11.11.2011-C от 11 Ноября 2011 г.</t>
+          <t>Счет на оплату № 1.11.02.2019-C от 11 Февраля 2019 г.</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="G16" s="130" t="inlineStr">
         <is>
-          <t>Аоалвтвт а а а а аааа</t>
+          <t>Алалалда</t>
         </is>
       </c>
       <c r="AR16" s="103" t="n"/>
@@ -1932,7 +1932,7 @@
     <row r="17" customFormat="1" s="101">
       <c r="G17" s="131" t="inlineStr">
         <is>
-          <t>ИНН 339494994</t>
+          <t>ИНН Аллалала</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="G19" s="133" t="inlineStr">
         <is>
-          <t>Договор № 1.21/09/09 от 21 Сентября 2009 г.</t>
+          <t>Договор № 1.12/02/12 от 12 Февраля 2012 г.</t>
         </is>
       </c>
       <c r="AR19" s="103" t="n"/>
@@ -2078,7 +2078,7 @@
       <c r="C22" s="140" t="n"/>
       <c r="D22" s="141" t="inlineStr">
         <is>
-          <t>Аталатта алалал</t>
+          <t>Аллаата ааа</t>
         </is>
       </c>
       <c r="E22" s="142" t="n"/>
@@ -2115,14 +2115,14 @@
       <c r="AD22" s="142" t="n"/>
       <c r="AE22" s="140" t="n"/>
       <c r="AF22" s="145" t="n">
-        <v>4848484.3</v>
+        <v>303033.23</v>
       </c>
       <c r="AG22" s="142" t="n"/>
       <c r="AH22" s="142" t="n"/>
       <c r="AI22" s="142" t="n"/>
       <c r="AJ22" s="140" t="n"/>
       <c r="AK22" s="146" t="n">
-        <v>4848484.3</v>
+        <v>303033.23</v>
       </c>
       <c r="AL22" s="142" t="n"/>
       <c r="AM22" s="142" t="n"/>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="AK26" s="133" t="n"/>
       <c r="AL26" s="151" t="n">
-        <v>4848484.3</v>
+        <v>303033.23</v>
       </c>
       <c r="AR26" s="103" t="n"/>
     </row>
@@ -2212,7 +2212,7 @@
     <row r="29" s="102">
       <c r="B29" s="152" t="inlineStr">
         <is>
-          <t>Всего наименований 1, на сумму 4 848 484,30 руб.</t>
+          <t>Всего наименований 1, на сумму 303 033,23 руб.</t>
         </is>
       </c>
       <c r="AR29" s="103" t="n"/>
@@ -2220,7 +2220,7 @@
     <row r="30" s="102">
       <c r="B30" s="153" t="inlineStr">
         <is>
-          <t>Четыре миллиона восемьсот сорок восемь тысяч четыреста восемьдесят четыре рубля 30 копеек</t>
+          <t>Триста три тысячи тридцать три рубля 23 копейки</t>
         </is>
       </c>
       <c r="AQ30" s="103" t="n"/>

--- a/templates/alpha.xlsx
+++ b/templates/alpha.xlsx
@@ -1762,7 +1762,7 @@
     <row r="10" s="102">
       <c r="B10" s="125" t="inlineStr">
         <is>
-          <t>Счет на оплату № 1.11.02.2019-C от 11 Февраля 2019 г.</t>
+          <t>Счет на оплату № 1.31.10.2024-C от 31 Октября 2024 г.</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="G16" s="130" t="inlineStr">
         <is>
-          <t>Алалалда</t>
+          <t>сыфвасфы</t>
         </is>
       </c>
       <c r="AR16" s="103" t="n"/>
@@ -1932,7 +1932,7 @@
     <row r="17" customFormat="1" s="101">
       <c r="G17" s="131" t="inlineStr">
         <is>
-          <t>ИНН Аллалала</t>
+          <t>ИНН 213123</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="G19" s="133" t="inlineStr">
         <is>
-          <t>Договор № 1.12/02/12 от 12 Февраля 2012 г.</t>
+          <t>Договор № 1.12/12/87 от 12 Декабря 2087 г.</t>
         </is>
       </c>
       <c r="AR19" s="103" t="n"/>
@@ -2078,7 +2078,7 @@
       <c r="C22" s="140" t="n"/>
       <c r="D22" s="141" t="inlineStr">
         <is>
-          <t>Аллаата ааа</t>
+          <t>вапаппв</t>
         </is>
       </c>
       <c r="E22" s="142" t="n"/>
@@ -2114,15 +2114,19 @@
       </c>
       <c r="AD22" s="142" t="n"/>
       <c r="AE22" s="140" t="n"/>
-      <c r="AF22" s="145" t="n">
-        <v>303033.23</v>
+      <c r="AF22" s="145" t="inlineStr">
+        <is>
+          <t>121 652.00руб</t>
+        </is>
       </c>
       <c r="AG22" s="142" t="n"/>
       <c r="AH22" s="142" t="n"/>
       <c r="AI22" s="142" t="n"/>
       <c r="AJ22" s="140" t="n"/>
-      <c r="AK22" s="146" t="n">
-        <v>303033.23</v>
+      <c r="AK22" s="146" t="inlineStr">
+        <is>
+          <t>121 652.00руб</t>
+        </is>
       </c>
       <c r="AL22" s="142" t="n"/>
       <c r="AM22" s="142" t="n"/>
@@ -2191,8 +2195,10 @@
         </is>
       </c>
       <c r="AK26" s="133" t="n"/>
-      <c r="AL26" s="151" t="n">
-        <v>303033.23</v>
+      <c r="AL26" s="151" t="inlineStr">
+        <is>
+          <t>121 652.00руб</t>
+        </is>
       </c>
       <c r="AR26" s="103" t="n"/>
     </row>
@@ -2212,7 +2218,7 @@
     <row r="29" s="102">
       <c r="B29" s="152" t="inlineStr">
         <is>
-          <t>Всего наименований 1, на сумму 303 033,23 руб.</t>
+          <t>Всего наименований 1, на сумму 121 652,00 руб.</t>
         </is>
       </c>
       <c r="AR29" s="103" t="n"/>
@@ -2220,7 +2226,7 @@
     <row r="30" s="102">
       <c r="B30" s="153" t="inlineStr">
         <is>
-          <t>Триста три тысячи тридцать три рубля 23 копейки</t>
+          <t>Сто двадцать одна тысяча шестьсот пятьдесят два рубля 00 копеек</t>
         </is>
       </c>
       <c r="AQ30" s="103" t="n"/>

--- a/templates/alpha.xlsx
+++ b/templates/alpha.xlsx
@@ -1762,7 +1762,7 @@
     <row r="10" s="102">
       <c r="B10" s="125" t="inlineStr">
         <is>
-          <t>Счет на оплату № 1.31.10.2024-C от 31 Октября 2024 г.</t>
+          <t>Счет на оплату № 1.23.09.2024-C от 23 Сентября 2024 г.</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="G16" s="130" t="inlineStr">
         <is>
-          <t>сыфвасфы</t>
+          <t>Кллвалла</t>
         </is>
       </c>
       <c r="AR16" s="103" t="n"/>
@@ -1932,7 +1932,7 @@
     <row r="17" customFormat="1" s="101">
       <c r="G17" s="131" t="inlineStr">
         <is>
-          <t>ИНН 213123</t>
+          <t>ИНН 2222</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="G19" s="133" t="inlineStr">
         <is>
-          <t>Договор № 1.12/12/87 от 12 Декабря 2087 г.</t>
+          <t>Договор № 1.12/12/23 от 12 Декабря 2012 г.</t>
         </is>
       </c>
       <c r="AR19" s="103" t="n"/>
@@ -2078,7 +2078,7 @@
       <c r="C22" s="140" t="n"/>
       <c r="D22" s="141" t="inlineStr">
         <is>
-          <t>вапаппв</t>
+          <t>Алалал</t>
         </is>
       </c>
       <c r="E22" s="142" t="n"/>
@@ -2116,7 +2116,7 @@
       <c r="AE22" s="140" t="n"/>
       <c r="AF22" s="145" t="inlineStr">
         <is>
-          <t>121 652.00руб</t>
+          <t>3 939.00 ₽</t>
         </is>
       </c>
       <c r="AG22" s="142" t="n"/>
@@ -2125,7 +2125,7 @@
       <c r="AJ22" s="140" t="n"/>
       <c r="AK22" s="146" t="inlineStr">
         <is>
-          <t>121 652.00руб</t>
+          <t>3 939.00 ₽</t>
         </is>
       </c>
       <c r="AL22" s="142" t="n"/>
@@ -2197,7 +2197,7 @@
       <c r="AK26" s="133" t="n"/>
       <c r="AL26" s="151" t="inlineStr">
         <is>
-          <t>121 652.00руб</t>
+          <t>3 939.00 ₽</t>
         </is>
       </c>
       <c r="AR26" s="103" t="n"/>
@@ -2218,7 +2218,7 @@
     <row r="29" s="102">
       <c r="B29" s="152" t="inlineStr">
         <is>
-          <t>Всего наименований 1, на сумму 121 652,00 руб.</t>
+          <t>Всего наименований 1, на сумму 3 939,00 руб.</t>
         </is>
       </c>
       <c r="AR29" s="103" t="n"/>
@@ -2226,7 +2226,7 @@
     <row r="30" s="102">
       <c r="B30" s="153" t="inlineStr">
         <is>
-          <t>Сто двадцать одна тысяча шестьсот пятьдесят два рубля 00 копеек</t>
+          <t>Три тысячи девятьсот тридцать девять рублей 00 копеек</t>
         </is>
       </c>
       <c r="AQ30" s="103" t="n"/>

--- a/templates/alpha.xlsx
+++ b/templates/alpha.xlsx
@@ -1762,7 +1762,7 @@
     <row r="10" s="102">
       <c r="B10" s="125" t="inlineStr">
         <is>
-          <t>Счет на оплату № 1.23.09.2024-C от 23 Сентября 2024 г.</t>
+          <t>Счет на оплату № 1.30.09.2024-C от 30 Сентября 2024 г.</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="G16" s="130" t="inlineStr">
         <is>
-          <t>Кллвалла</t>
+          <t>+$+$$+$</t>
         </is>
       </c>
       <c r="AR16" s="103" t="n"/>
@@ -1932,7 +1932,7 @@
     <row r="17" customFormat="1" s="101">
       <c r="G17" s="131" t="inlineStr">
         <is>
-          <t>ИНН 2222</t>
+          <t>ИНН Didjnde</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="G19" s="133" t="inlineStr">
         <is>
-          <t>Договор № 1.12/12/23 от 12 Декабря 2012 г.</t>
+          <t>Договор № 1.12/12/12 от 12 Декабря 2012 г.</t>
         </is>
       </c>
       <c r="AR19" s="103" t="n"/>
@@ -2078,7 +2078,7 @@
       <c r="C22" s="140" t="n"/>
       <c r="D22" s="141" t="inlineStr">
         <is>
-          <t>Алалал</t>
+          <t>Djhdjddj</t>
         </is>
       </c>
       <c r="E22" s="142" t="n"/>
@@ -2116,7 +2116,7 @@
       <c r="AE22" s="140" t="n"/>
       <c r="AF22" s="145" t="inlineStr">
         <is>
-          <t>3 939.00 ₽</t>
+          <t>344 444.34 ₽</t>
         </is>
       </c>
       <c r="AG22" s="142" t="n"/>
@@ -2125,7 +2125,7 @@
       <c r="AJ22" s="140" t="n"/>
       <c r="AK22" s="146" t="inlineStr">
         <is>
-          <t>3 939.00 ₽</t>
+          <t>344 444.34 ₽</t>
         </is>
       </c>
       <c r="AL22" s="142" t="n"/>
@@ -2197,7 +2197,7 @@
       <c r="AK26" s="133" t="n"/>
       <c r="AL26" s="151" t="inlineStr">
         <is>
-          <t>3 939.00 ₽</t>
+          <t>344 444.34 ₽</t>
         </is>
       </c>
       <c r="AR26" s="103" t="n"/>
@@ -2218,7 +2218,7 @@
     <row r="29" s="102">
       <c r="B29" s="152" t="inlineStr">
         <is>
-          <t>Всего наименований 1, на сумму 3 939,00 руб.</t>
+          <t>Всего наименований 1, на сумму 344 444,34 руб.</t>
         </is>
       </c>
       <c r="AR29" s="103" t="n"/>
@@ -2226,7 +2226,7 @@
     <row r="30" s="102">
       <c r="B30" s="153" t="inlineStr">
         <is>
-          <t>Три тысячи девятьсот тридцать девять рублей 00 копеек</t>
+          <t>Триста сорок четыре тысячи четыреста сорок четыре рубля 34 копейки</t>
         </is>
       </c>
       <c r="AQ30" s="103" t="n"/>
